--- a/outputs-HGR-r202-archive/g__UBA733.xlsx
+++ b/outputs-HGR-r202-archive/g__UBA733.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,32 +518,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT65341.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900539595</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900539595</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
